--- a/tables/sociodemograficos/muestra.xlsx
+++ b/tables/sociodemograficos/muestra.xlsx
@@ -6,51 +6,144 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="nacionalidad" r:id="rId3" sheetId="1"/>
+    <sheet name="nac_desagregada" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>nacionalidad_var</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+  <si>
+    <t>nacionalidad_desagregada</t>
   </si>
   <si>
     <t>cantidad</t>
   </si>
   <si>
+    <t>ALEMANIA</t>
+  </si>
+  <si>
+    <t>ANGOLA</t>
+  </si>
+  <si>
+    <t>APÁTRIDA</t>
+  </si>
+  <si>
+    <t>ARGELIA</t>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
+  </si>
+  <si>
+    <t>AUSTRIA</t>
+  </si>
+  <si>
     <t>BOLIVIA</t>
   </si>
   <si>
     <t>BRASIL</t>
   </si>
   <si>
+    <t>BULGARIA</t>
+  </si>
+  <si>
+    <t>BÉLGICA</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
     <t>CHILE</t>
   </si>
   <si>
+    <t>CHINA</t>
+  </si>
+  <si>
     <t>COLOMBIA</t>
   </si>
   <si>
+    <t>COSTA RICA</t>
+  </si>
+  <si>
     <t>CUBA</t>
   </si>
   <si>
     <t>ECUADOR</t>
   </si>
   <si>
+    <t>EL SALVADOR</t>
+  </si>
+  <si>
     <t>ESPAÑA</t>
   </si>
   <si>
+    <t>ESTADOS UNIDOS</t>
+  </si>
+  <si>
+    <t>FRANCIA</t>
+  </si>
+  <si>
+    <t>GHANA</t>
+  </si>
+  <si>
+    <t>GRECIA</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
     <t>HAITÍ</t>
   </si>
   <si>
+    <t>HONDURAS</t>
+  </si>
+  <si>
+    <t>HUNGRÍA</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>IRLANDA</t>
+  </si>
+  <si>
     <t>ITALIA</t>
   </si>
   <si>
+    <t>JAMAICA</t>
+  </si>
+  <si>
+    <t>JAPÓN</t>
+  </si>
+  <si>
+    <t>LITUANIA</t>
+  </si>
+  <si>
+    <t>LÍBANO</t>
+  </si>
+  <si>
+    <t>MADAGASCAR</t>
+  </si>
+  <si>
+    <t>MARRUECOS</t>
+  </si>
+  <si>
+    <t>MOZAMBIQUE</t>
+  </si>
+  <si>
     <t>MÉXICO</t>
   </si>
   <si>
-    <t>OTRES</t>
+    <t>NICARAGUA</t>
+  </si>
+  <si>
+    <t>NORUEGA</t>
+  </si>
+  <si>
+    <t>NUEVA ZELANDA</t>
+  </si>
+  <si>
+    <t>PANAMÁ</t>
   </si>
   <si>
     <t>PARAGUAY</t>
@@ -59,10 +152,58 @@
     <t>PERU</t>
   </si>
   <si>
+    <t>POLONIA</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>PUERTO RICO</t>
+  </si>
+  <si>
+    <t>REINO UNIDO</t>
+  </si>
+  <si>
     <t>REPÚBLICA DOMINICANA</t>
   </si>
   <si>
+    <t>RUMANIA</t>
+  </si>
+  <si>
+    <t>RUSIA</t>
+  </si>
+  <si>
     <t>SENEGAL</t>
+  </si>
+  <si>
+    <t>SERBIA</t>
+  </si>
+  <si>
+    <t>SIRIA</t>
+  </si>
+  <si>
+    <t>SUECIA</t>
+  </si>
+  <si>
+    <t>SUIZA</t>
+  </si>
+  <si>
+    <t>TAIWÁN</t>
+  </si>
+  <si>
+    <t>TANZANIA</t>
+  </si>
+  <si>
+    <t>TOGO</t>
+  </si>
+  <si>
+    <t>TURKMENISTAN</t>
+  </si>
+  <si>
+    <t>TURQUÍA</t>
+  </si>
+  <si>
+    <t>UCRANIA</t>
   </si>
   <si>
     <t>URUGUAY</t>
@@ -132,7 +273,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>636.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -140,7 +281,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>304.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -148,7 +289,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>249.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -156,7 +297,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>357.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -164,7 +305,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>50.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -172,7 +313,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>61.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -180,7 +321,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>35.0</v>
+        <v>636.0</v>
       </c>
     </row>
     <row r="9">
@@ -188,7 +329,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>90.0</v>
+        <v>304.0</v>
       </c>
     </row>
     <row r="10">
@@ -196,7 +337,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>40.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -204,7 +345,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>69.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -212,7 +353,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>200.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -220,7 +361,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>960.0</v>
+        <v>249.0</v>
       </c>
     </row>
     <row r="14">
@@ -228,7 +369,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>398.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
@@ -236,7 +377,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>64.0</v>
+        <v>357.0</v>
       </c>
     </row>
     <row r="16">
@@ -244,7 +385,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>28.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
@@ -252,7 +393,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>137.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="18">
@@ -260,6 +401,382 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="n">
+        <v>960.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>398.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="n">
+        <v>137.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="n">
         <v>1001.0</v>
       </c>
     </row>
